--- a/2020/Day11.xlsx
+++ b/2020/Day11.xlsx
@@ -5,18 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/AoC2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC6F79-130F-B140-8D72-F17746E5B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{9841BE40-2722-1645-A09D-11DC69B74A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
+    <workbookView xWindow="11600" yWindow="760" windowWidth="23360" windowHeight="14540" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Solutions" sheetId="1" r:id="rId1"/>
+    <sheet name="Solutions" sheetId="3" r:id="rId1"/>
     <sheet name="Workings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="input">Workings!#REF!</definedName>
+    <definedName name="Number1">Workings!#REF!</definedName>
+    <definedName name="Number2">Workings!#REF!</definedName>
+    <definedName name="Target">Workings!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,12 +413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344FFF3B-D6C6-1B4A-8070-5BE3B66922E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A22F2-6DC6-9649-B622-E18762B0409B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -437,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F4387-9FD6-E241-86F1-7FFD05E57526}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
